--- a/documentation/image-regester.xlsx
+++ b/documentation/image-regester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazza\Documents\Diploma\web-design\WD4\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A22DBF-99AF-449E-876A-E5E212D19E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A82A4B5-7BD0-4DFF-B780-651DB535D578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="2130" windowWidth="21600" windowHeight="8790" xr2:uid="{BBD52AFF-ED87-4C79-9BAE-18D4C78E2138}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Original File Name</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>images/originals</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/hamburger-with-egg-and-vegetable-1251198/</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/photo-of-juicy-burger-on-wooden-surface-1639565/</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/hamburger-beside-fries-2271107/</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/bread-food-sandwich-people-4871115/</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/triple-patty-cheeseburger-3052364/</t>
   </si>
 </sst>
 </file>
@@ -566,7 +581,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +696,9 @@
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -700,7 +717,9 @@
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -719,7 +738,9 @@
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -738,7 +759,9 @@
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -757,7 +780,9 @@
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
